--- a/Mission.Report.1.1.xlsx
+++ b/Mission.Report.1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Individual and Team Missions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t>Date Fulfilled</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ausfüllen des Mission Report, Sonnenblende heruntergelassen, Moderation </t>
+  </si>
+  <si>
+    <t>Ausfüllen Mission Report, Studenten für die Präsentation suchen, bie Rückfragen zu Verfügung stehen</t>
   </si>
 </sst>
 </file>
@@ -202,13 +205,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -544,11 +547,11 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -619,11 +622,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -664,7 +667,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,11 +684,11 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -756,6 +759,12 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="5">
+        <v>44515</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -768,11 +777,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -813,7 +822,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,11 +839,11 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -873,7 +882,7 @@
       <c r="B7" s="5">
         <v>44494</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -913,6 +922,12 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B12" s="5">
+        <v>44515</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -947,11 +962,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -994,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1012,11 +1027,11 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1117,11 +1132,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1161,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,11 +1194,11 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1269,7 +1284,7 @@
       <c r="B14" s="5">
         <v>44508</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1290,11 +1305,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1326,6 +1341,9 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A19:C19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>